--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang4/2.XuLyBH/XLBH2204_KimLong.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang4/2.XuLyBH/XLBH2204_KimLong.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="74">
   <si>
     <t>STT</t>
   </si>
@@ -247,6 +247,12 @@
   </si>
   <si>
     <t>IMEI TB mới : 22030006</t>
+  </si>
+  <si>
+    <t>28/04/2022</t>
+  </si>
+  <si>
+    <t>IMEI TB mới : 22040008</t>
   </si>
 </sst>
 </file>
@@ -646,6 +652,30 @@
     <xf numFmtId="4" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -663,30 +693,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -997,8 +1003,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView showZeros="0" tabSelected="1" topLeftCell="J1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:R9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1030,43 +1036,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="74" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66"/>
-      <c r="I1" s="66"/>
-      <c r="J1" s="66"/>
-      <c r="K1" s="66"/>
-      <c r="L1" s="66"/>
-      <c r="M1" s="66"/>
-      <c r="N1" s="66"/>
-      <c r="O1" s="66"/>
-      <c r="P1" s="66"/>
-      <c r="Q1" s="66"/>
-      <c r="R1" s="66"/>
-      <c r="S1" s="66"/>
-      <c r="T1" s="66"/>
-      <c r="U1" s="66"/>
-      <c r="V1" s="66"/>
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="74"/>
+      <c r="H1" s="74"/>
+      <c r="I1" s="74"/>
+      <c r="J1" s="74"/>
+      <c r="K1" s="74"/>
+      <c r="L1" s="74"/>
+      <c r="M1" s="74"/>
+      <c r="N1" s="74"/>
+      <c r="O1" s="74"/>
+      <c r="P1" s="74"/>
+      <c r="Q1" s="74"/>
+      <c r="R1" s="74"/>
+      <c r="S1" s="74"/>
+      <c r="T1" s="74"/>
+      <c r="U1" s="74"/>
+      <c r="V1" s="74"/>
       <c r="W1" s="45"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="67" t="s">
+      <c r="A2" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="68"/>
-      <c r="C2" s="68"/>
-      <c r="D2" s="68"/>
-      <c r="E2" s="69" t="s">
+      <c r="B2" s="76"/>
+      <c r="C2" s="76"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="77" t="s">
         <v>62</v>
       </c>
-      <c r="F2" s="69"/>
+      <c r="F2" s="77"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="50"/>
@@ -1111,58 +1117,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="70" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="65" t="s">
+      <c r="A4" s="78" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="65"/>
-      <c r="D4" s="65"/>
-      <c r="E4" s="65"/>
-      <c r="F4" s="65"/>
-      <c r="G4" s="65"/>
-      <c r="H4" s="65"/>
-      <c r="I4" s="65"/>
-      <c r="J4" s="65" t="s">
+      <c r="C4" s="73"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="73"/>
+      <c r="F4" s="73"/>
+      <c r="G4" s="73"/>
+      <c r="H4" s="73"/>
+      <c r="I4" s="73"/>
+      <c r="J4" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="65" t="s">
+      <c r="K4" s="73" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="65"/>
-      <c r="M4" s="71" t="s">
+      <c r="L4" s="73"/>
+      <c r="M4" s="70" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="71" t="s">
+      <c r="N4" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="71" t="s">
+      <c r="O4" s="70" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="76" t="s">
+      <c r="P4" s="68" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="71" t="s">
+      <c r="Q4" s="70" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="71" t="s">
+      <c r="R4" s="70" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="78" t="s">
+      <c r="S4" s="72" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="65" t="s">
+      <c r="U4" s="73" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="65" t="s">
+      <c r="V4" s="73" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="46"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="70"/>
+      <c r="A5" s="78"/>
       <c r="B5" s="62" t="s">
         <v>1</v>
       </c>
@@ -1187,23 +1193,23 @@
       <c r="I5" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="65"/>
+      <c r="J5" s="73"/>
       <c r="K5" s="62" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="62" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="72"/>
-      <c r="N5" s="72"/>
-      <c r="O5" s="72"/>
-      <c r="P5" s="77"/>
-      <c r="Q5" s="72"/>
-      <c r="R5" s="72"/>
-      <c r="S5" s="78"/>
+      <c r="M5" s="71"/>
+      <c r="N5" s="71"/>
+      <c r="O5" s="71"/>
+      <c r="P5" s="69"/>
+      <c r="Q5" s="71"/>
+      <c r="R5" s="71"/>
+      <c r="S5" s="72"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="65"/>
-      <c r="V5" s="65"/>
+      <c r="U5" s="73"/>
+      <c r="V5" s="73"/>
       <c r="W5" s="46"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1253,7 +1259,7 @@
       </c>
       <c r="S6" s="3"/>
       <c r="T6" s="63"/>
-      <c r="U6" s="73" t="s">
+      <c r="U6" s="65" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -1308,7 +1314,7 @@
       </c>
       <c r="S7" s="3"/>
       <c r="T7" s="63"/>
-      <c r="U7" s="74"/>
+      <c r="U7" s="66"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -1361,7 +1367,7 @@
       </c>
       <c r="S8" s="3"/>
       <c r="T8" s="63"/>
-      <c r="U8" s="74"/>
+      <c r="U8" s="66"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -1374,7 +1380,9 @@
       <c r="B9" s="61">
         <v>44657</v>
       </c>
-      <c r="C9" s="61"/>
+      <c r="C9" s="61" t="s">
+        <v>72</v>
+      </c>
       <c r="D9" s="37" t="s">
         <v>57</v>
       </c>
@@ -1385,20 +1393,34 @@
       <c r="G9" s="37" t="s">
         <v>63</v>
       </c>
-      <c r="H9" s="48"/>
+      <c r="H9" s="37" t="s">
+        <v>73</v>
+      </c>
       <c r="I9" s="53"/>
-      <c r="J9" s="1"/>
+      <c r="J9" s="1" t="s">
+        <v>65</v>
+      </c>
       <c r="K9" s="1"/>
       <c r="L9" s="39"/>
-      <c r="M9" s="39"/>
+      <c r="M9" s="39" t="s">
+        <v>66</v>
+      </c>
       <c r="N9" s="1"/>
-      <c r="O9" s="39"/>
-      <c r="P9" s="1"/>
-      <c r="Q9" s="2"/>
-      <c r="R9" s="37"/>
+      <c r="O9" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="P9" s="39" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="R9" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="S9" s="3"/>
       <c r="T9" s="63"/>
-      <c r="U9" s="74"/>
+      <c r="U9" s="66"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -1427,7 +1449,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="63"/>
-      <c r="U10" s="74"/>
+      <c r="U10" s="66"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -1456,7 +1478,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="63"/>
-      <c r="U11" s="74"/>
+      <c r="U11" s="66"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -1485,7 +1507,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="63"/>
-      <c r="U12" s="73" t="s">
+      <c r="U12" s="65" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -1516,7 +1538,7 @@
       <c r="R13" s="37"/>
       <c r="S13" s="3"/>
       <c r="T13" s="63"/>
-      <c r="U13" s="74"/>
+      <c r="U13" s="66"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -1545,7 +1567,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="63"/>
-      <c r="U14" s="74"/>
+      <c r="U14" s="66"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -1574,7 +1596,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="74"/>
+      <c r="U15" s="66"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -1603,7 +1625,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="75"/>
+      <c r="U16" s="67"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -1753,7 +1775,7 @@
       </c>
       <c r="V21" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PC")</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="W21" s="13"/>
     </row>
@@ -1998,7 +2020,7 @@
       </c>
       <c r="V29" s="9">
         <f>COUNTIF($R$6:$R$51,"*NG*")</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="W29" s="13"/>
     </row>
@@ -2254,7 +2276,7 @@
       </c>
       <c r="V37" s="9">
         <f>SUM(V26:V36)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="W37" s="13"/>
     </row>
@@ -2340,7 +2362,7 @@
       </c>
       <c r="V40" s="9">
         <f>COUNTIF($O$6:$O$51,"*DM*")</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="W40" s="13"/>
     </row>
@@ -2833,13 +2855,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -2851,6 +2866,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2894,43 +2916,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="74" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66"/>
-      <c r="I1" s="66"/>
-      <c r="J1" s="66"/>
-      <c r="K1" s="66"/>
-      <c r="L1" s="66"/>
-      <c r="M1" s="66"/>
-      <c r="N1" s="66"/>
-      <c r="O1" s="66"/>
-      <c r="P1" s="66"/>
-      <c r="Q1" s="66"/>
-      <c r="R1" s="66"/>
-      <c r="S1" s="66"/>
-      <c r="T1" s="66"/>
-      <c r="U1" s="66"/>
-      <c r="V1" s="66"/>
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="74"/>
+      <c r="H1" s="74"/>
+      <c r="I1" s="74"/>
+      <c r="J1" s="74"/>
+      <c r="K1" s="74"/>
+      <c r="L1" s="74"/>
+      <c r="M1" s="74"/>
+      <c r="N1" s="74"/>
+      <c r="O1" s="74"/>
+      <c r="P1" s="74"/>
+      <c r="Q1" s="74"/>
+      <c r="R1" s="74"/>
+      <c r="S1" s="74"/>
+      <c r="T1" s="74"/>
+      <c r="U1" s="74"/>
+      <c r="V1" s="74"/>
       <c r="W1" s="45"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="67" t="s">
+      <c r="A2" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="68"/>
-      <c r="C2" s="68"/>
-      <c r="D2" s="68"/>
-      <c r="E2" s="69" t="s">
+      <c r="B2" s="76"/>
+      <c r="C2" s="76"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="77" t="s">
         <v>62</v>
       </c>
-      <c r="F2" s="69"/>
+      <c r="F2" s="77"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="20"/>
@@ -2975,58 +2997,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="70" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="65" t="s">
+      <c r="A4" s="78" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="65"/>
-      <c r="D4" s="65"/>
-      <c r="E4" s="65"/>
-      <c r="F4" s="65"/>
-      <c r="G4" s="65"/>
-      <c r="H4" s="65"/>
-      <c r="I4" s="65"/>
-      <c r="J4" s="65" t="s">
+      <c r="C4" s="73"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="73"/>
+      <c r="F4" s="73"/>
+      <c r="G4" s="73"/>
+      <c r="H4" s="73"/>
+      <c r="I4" s="73"/>
+      <c r="J4" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="65" t="s">
+      <c r="K4" s="73" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="65"/>
-      <c r="M4" s="71" t="s">
+      <c r="L4" s="73"/>
+      <c r="M4" s="70" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="71" t="s">
+      <c r="N4" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="65" t="s">
+      <c r="O4" s="73" t="s">
         <v>7</v>
       </c>
       <c r="P4" s="79" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="65" t="s">
+      <c r="Q4" s="73" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="65" t="s">
+      <c r="R4" s="73" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="78" t="s">
+      <c r="S4" s="72" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="65" t="s">
+      <c r="U4" s="73" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="65" t="s">
+      <c r="V4" s="73" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="46"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="70"/>
+      <c r="A5" s="78"/>
       <c r="B5" s="42" t="s">
         <v>1</v>
       </c>
@@ -3051,23 +3073,23 @@
       <c r="I5" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="65"/>
+      <c r="J5" s="73"/>
       <c r="K5" s="42" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="72"/>
-      <c r="N5" s="72"/>
-      <c r="O5" s="65"/>
+      <c r="M5" s="71"/>
+      <c r="N5" s="71"/>
+      <c r="O5" s="73"/>
       <c r="P5" s="79"/>
-      <c r="Q5" s="65"/>
-      <c r="R5" s="65"/>
-      <c r="S5" s="78"/>
+      <c r="Q5" s="73"/>
+      <c r="R5" s="73"/>
+      <c r="S5" s="72"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="65"/>
-      <c r="V5" s="65"/>
+      <c r="U5" s="73"/>
+      <c r="V5" s="73"/>
       <c r="W5" s="46"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3093,7 +3115,7 @@
       <c r="R6" s="37"/>
       <c r="S6" s="3"/>
       <c r="T6" s="41"/>
-      <c r="U6" s="73" t="s">
+      <c r="U6" s="65" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -3124,7 +3146,7 @@
       <c r="R7" s="37"/>
       <c r="S7" s="3"/>
       <c r="T7" s="41"/>
-      <c r="U7" s="74"/>
+      <c r="U7" s="66"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -3153,7 +3175,7 @@
       <c r="R8" s="37"/>
       <c r="S8" s="3"/>
       <c r="T8" s="41"/>
-      <c r="U8" s="74"/>
+      <c r="U8" s="66"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -3182,7 +3204,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="41"/>
-      <c r="U9" s="74"/>
+      <c r="U9" s="66"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -3211,7 +3233,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="41"/>
-      <c r="U10" s="74"/>
+      <c r="U10" s="66"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -3240,7 +3262,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="41"/>
-      <c r="U11" s="74"/>
+      <c r="U11" s="66"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -3269,7 +3291,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="41"/>
-      <c r="U12" s="73" t="s">
+      <c r="U12" s="65" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -3300,7 +3322,7 @@
       <c r="R13" s="9"/>
       <c r="S13" s="3"/>
       <c r="T13" s="41"/>
-      <c r="U13" s="74"/>
+      <c r="U13" s="66"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -3329,7 +3351,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="41"/>
-      <c r="U14" s="74"/>
+      <c r="U14" s="66"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -3358,7 +3380,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="74"/>
+      <c r="U15" s="66"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -3387,7 +3409,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="75"/>
+      <c r="U16" s="67"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -4618,13 +4640,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -4636,6 +4651,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
